--- a/API-Endpoints/data.xlsx
+++ b/API-Endpoints/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="6450"/>
+    <workbookView windowWidth="15315" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,51 +32,65 @@
     <t>post</t>
   </si>
   <si>
-    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients</t>
+    <t>/v1/fetchAllClients</t>
   </si>
   <si>
-    <t>""</t>
+    <t>{}</t>
   </si>
   <si>
-    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/insertClients</t>
+    <t>/v1/insertClients</t>
   </si>
   <si>
-    <t>{\"data\":{\"client_name\":\"kkk\",\"entity_name\":\"MyNewEntity3\",\"sub_category\":\"MyNewSubcategory3\",\"client_address\":\"MyNewAddress3\",\"primary_contact_details\":\"909090909\",\"secondary_contact_details\":\"9999999991\",\"billing_address\":\"MyNewBillingAddress3\",\"sla_agreement\":\"\",\"client_components\":[\"Address\"],\"pricing\":\"900000001\"}}</t>
+    <t>{
+    "data": {
+        "client_name": "kavya343456564",
+        "entity_name": "My New Entity3",
+        "sub_category": "My New Subcategory3",
+        "client_address": "My New Address3",
+        "primary_contact_details": "909090909",
+        "secondary_contact_details": "9999999991",
+        "billing_address": "My New Billing Address3",
+        "sla_agreement": "",
+        "client_components": [
+            "Address"
+        ],
+        "pricing": "900000001"
+    }
+}</t>
   </si>
   <si>
-    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/updateClient</t>
+    <t>/v1/updateClient</t>
   </si>
   <si>
-    <t xml:space="preserve">{\r\n"
-          + "    \"data\": {\r\n"
-          + "        \"client_name\": \"vijaykumar\",\r\n"
-          + "        \"entity_name\": \"My New Entity5\",\r\n"
-          + "        \"sub_category\": \"My New Subcategory5\",\r\n"
-          + "        \"client_address\": \"My New Address5\",\r\n"
-          + "        \"primary_contact_details\": \"9090909095\",\r\n"
-          + "        \"secondary_contact_details\": \"9999999995\",\r\n"
-          + "        \"billing_address\": \"My New Billing Address5\",\r\n"
-          + "        \"sla_agreement\": \"pak5.jpg\",\r\n"
-          + "        \"client_components\": [\r\n"
-          + "            \"Address\",\r\n"
-          + "            \"Employment\"\r\n"
-          + "        ],\r\n"
-          + "        \"pricing\": \"9000000015\",\r\n"
-          + "        \"client_id\": \"88ef3ebe-e6fb-5a8a-a192-054b8354af29\"\r\n"
-          + "    }\r\n"
-          + "}
-            </t>
+    <t>{
+    "data": {
+        "client_name": "Oracle345",
+        "entity_name": "My New Entity5",
+        "sub_category": "My New Subcategory5",
+        "client_address": "My New Address5",
+        "primary_contact_details": "9090909095",
+        "secondary_contact_details": "9999999995",
+        "billing_address": "My New Billing Address5",
+        "sla_agreement": "pak5.jpg",
+        "client_components": [
+            "Address",
+            "Employment"
+        ],
+        "pricing": "9000000015",
+        "client_id": "4b76077f-b885-55a3-a0b1-10ba6389e469"
+    }
+}</t>
   </si>
   <si>
-    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/deleteClient</t>
+    <t>/v1/deleteClient</t>
   </si>
   <si>
-    <t>{\r\n"
-              + "    \"data\":\r\n"
-              + "    {\r\n"
-              + "         \"client_id\": \"e3f757db-de44-5fd2-bbf5-0a56fb50fab6\"\r\n"
-              + "    }\r\n"
-              + "}</t>
+    <t>{
+    "data":
+    {
+         "client_id": "e3f757db-de44-5fd2-bbf5-0a56fb50fab6"
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -84,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +136,7 @@
     <font>
       <u/>
       <sz val="18"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,53 +148,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,16 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,53 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +270,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,19 +315,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,157 +417,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +506,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,6 +529,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -558,29 +600,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,15 +611,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,134 +629,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +779,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1106,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="23.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1122,7 +1147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="209.25" spans="1:4">
+    <row r="3" ht="409.5" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1179,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1166,9 +1191,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/insertClients"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/deleteClient"/>
+    <hyperlink ref="B3" r:id="rId1" display="/v1/insertClients"/>
+    <hyperlink ref="B2" r:id="rId2" display="/v1/fetchAllClients"/>
+    <hyperlink ref="B5" r:id="rId3" display="/v1/deleteClient"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/API-Endpoints/data.xlsx
+++ b/API-Endpoints/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15315" windowHeight="5100"/>
+    <workbookView windowWidth="18060" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,65 +32,51 @@
     <t>post</t>
   </si>
   <si>
-    <t>/v1/fetchAllClients</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>/v1/insertClients</t>
-  </si>
-  <si>
-    <t>{
-    "data": {
-        "client_name": "kavya343456564",
-        "entity_name": "My New Entity3",
-        "sub_category": "My New Subcategory3",
-        "client_address": "My New Address3",
-        "primary_contact_details": "909090909",
-        "secondary_contact_details": "9999999991",
-        "billing_address": "My New Billing Address3",
-        "sla_agreement": "",
-        "client_components": [
-            "Address"
-        ],
-        "pricing": "900000001"
-    }
-}</t>
-  </si>
-  <si>
-    <t>/v1/updateClient</t>
-  </si>
-  <si>
-    <t>{
-    "data": {
-        "client_name": "Oracle345",
-        "entity_name": "My New Entity5",
-        "sub_category": "My New Subcategory5",
-        "client_address": "My New Address5",
-        "primary_contact_details": "9090909095",
-        "secondary_contact_details": "9999999995",
-        "billing_address": "My New Billing Address5",
-        "sla_agreement": "pak5.jpg",
-        "client_components": [
-            "Address",
-            "Employment"
-        ],
-        "pricing": "9000000015",
-        "client_id": "4b76077f-b885-55a3-a0b1-10ba6389e469"
-    }
-}</t>
-  </si>
-  <si>
-    <t>/v1/deleteClient</t>
-  </si>
-  <si>
-    <t>{
-    "data":
-    {
-         "client_id": "e3f757db-de44-5fd2-bbf5-0a56fb50fab6"
-    }
-}</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/insertClients</t>
+  </si>
+  <si>
+    <t>{\"data\":{\"client_name\":\"kkk\",\"entity_name\":\"MyNewEntity3\",\"sub_category\":\"MyNewSubcategory3\",\"client_address\":\"MyNewAddress3\",\"primary_contact_details\":\"909090909\",\"secondary_contact_details\":\"9999999991\",\"billing_address\":\"MyNewBillingAddress3\",\"sla_agreement\":\"\",\"client_components\":[\"Address\"],\"pricing\":\"900000001\"}}</t>
+  </si>
+  <si>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/updateClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{\r\n"
+          + "    \"data\": {\r\n"
+          + "        \"client_name\": \"vijaykumar\",\r\n"
+          + "        \"entity_name\": \"My New Entity5\",\r\n"
+          + "        \"sub_category\": \"My New Subcategory5\",\r\n"
+          + "        \"client_address\": \"My New Address5\",\r\n"
+          + "        \"primary_contact_details\": \"9090909095\",\r\n"
+          + "        \"secondary_contact_details\": \"9999999995\",\r\n"
+          + "        \"billing_address\": \"My New Billing Address5\",\r\n"
+          + "        \"sla_agreement\": \"pak5.jpg\",\r\n"
+          + "        \"client_components\": [\r\n"
+          + "            \"Address\",\r\n"
+          + "            \"Employment\"\r\n"
+          + "        ],\r\n"
+          + "        \"pricing\": \"9000000015\",\r\n"
+          + "        \"client_id\": \"88ef3ebe-e6fb-5a8a-a192-054b8354af29\"\r\n"
+          + "    }\r\n"
+          + "}
+            </t>
+  </si>
+  <si>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/deleteClient</t>
+  </si>
+  <si>
+    <t>{\r\n"
+              + "    \"data\":\r\n"
+              + "    {\r\n"
+              + "         \"client_id\": \"e3f757db-de44-5fd2-bbf5-0a56fb50fab6\"\r\n"
+              + "    }\r\n"
+              + "}</t>
   </si>
 </sst>
 </file>
@@ -98,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +122,7 @@
     <font>
       <u/>
       <sz val="18"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,23 +134,69 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +211,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,8 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,61 +258,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,31 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +293,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,150 +461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,12 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,15 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,26 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +532,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -600,9 +558,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,15 +589,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,134 +607,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +757,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1081,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="23.25" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1147,7 +1122,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="409.5" spans="1:4">
+    <row r="3" ht="209.25" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1154,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1191,9 +1166,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="/v1/insertClients"/>
-    <hyperlink ref="B2" r:id="rId2" display="/v1/fetchAllClients"/>
-    <hyperlink ref="B5" r:id="rId3" display="/v1/deleteClient"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/insertClients"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/deleteClient"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
